--- a/time_evolution/検証.xlsx
+++ b/time_evolution/検証.xlsx
@@ -488,8 +488,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>B4*(2*B1+B2)/B1</f>
-        <v>12.5</v>
+        <f>B3*(2*B1+B2)/B1</f>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -708,47 +708,47 @@
       </c>
       <c r="C12">
         <f>-1*$B$4*C9+$B$5</f>
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:M12" si="3">-1*$B$4*D9+$B$5</f>
-        <v>11.75</v>
+        <v>4.25</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>10.25</v>
+        <v>2.75</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>8.75</v>
+        <v>1.25</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>7.25</v>
+        <v>-0.25</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>5.75</v>
+        <v>-1.75</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -912,47 +912,47 @@
       </c>
       <c r="C18" s="4">
         <f>-1*$B$4*C15+$B$5</f>
-        <v>13.75</v>
+        <v>6.25</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ref="D18:M18" si="16">-1*$B$4*D15+$B$5</f>
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="16"/>
-        <v>12.25</v>
+        <v>4.75</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="16"/>
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="16"/>
-        <v>10.75</v>
+        <v>3.25</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="16"/>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="16"/>
-        <v>9.25</v>
+        <v>1.75</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="16"/>
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="16"/>
-        <v>7.75</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>-0.5</v>
       </c>
       <c r="M18">
         <f t="shared" si="16"/>
-        <v>6.25</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1124,47 +1124,47 @@
       </c>
       <c r="C24" s="4">
         <f>-1*$B$4*C21+$B$5</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ref="D24:M24" si="29">-1*$B$4*D21+$B$5</f>
-        <v>14.25</v>
+        <v>6.75</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="29"/>
-        <v>13.5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="29"/>
-        <v>12.75</v>
+        <v>5.25</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="29"/>
-        <v>11.25</v>
+        <v>3.75</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="29"/>
-        <v>10.5</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <f t="shared" si="29"/>
-        <v>9.75</v>
+        <v>2.25</v>
       </c>
       <c r="K24">
         <f t="shared" si="29"/>
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="L24" s="5">
         <f t="shared" si="29"/>
-        <v>8.25</v>
+        <v>0.75</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="29"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
